--- a/results_jcs.xlsx
+++ b/results_jcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/id_lid_iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F58149-B690-1240-8638-F8F5BD03E6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F27DA1F-E222-2148-B574-07DA992DBB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="3780" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
+    <workbookView xWindow="1940" yWindow="3360" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+  <si>
+    <t>NF BOT-IoT</t>
+  </si>
+  <si>
+    <t>Ton iot</t>
+  </si>
+  <si>
+    <t>Iot 23</t>
+  </si>
+  <si>
+    <t>unsw-nb15</t>
+  </si>
+  <si>
+    <t>kaggle-nid</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Isolation Forest</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Weighted Hamming KNN</t>
+  </si>
+  <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
+    <t>Weighted Hamming Lid</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +433,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA4823-D7EE-DD49-A638-7630EB7F3007}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C5">
+        <v>0.999</v>
+      </c>
+      <c r="D5">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.2288</v>
+      </c>
+      <c r="K5">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C6">
+        <v>0.999</v>
+      </c>
+      <c r="D6">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.99</v>
+      </c>
+      <c r="G6">
+        <v>0.97</v>
+      </c>
+      <c r="H6">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K6">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.998</v>
+      </c>
+      <c r="D7">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.99</v>
+      </c>
+      <c r="G7">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="J7">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="K7">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.998</v>
+      </c>
+      <c r="D8">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.97</v>
+      </c>
+      <c r="C9">
+        <v>0.999</v>
+      </c>
+      <c r="D9">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.998</v>
+      </c>
+      <c r="G9">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+      <c r="I9">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.86</v>
+      </c>
+      <c r="K9">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results_jcs.xlsx
+++ b/results_jcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/id_lid_iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F27DA1F-E222-2148-B574-07DA992DBB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB0DD9B-77D4-6847-8D21-C29481DE9EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="3360" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results_jcs.xlsx
+++ b/results_jcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/id_lid_iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB0DD9B-77D4-6847-8D21-C29481DE9EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1896929A-D869-8F4E-B31B-242311D0063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="3360" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
+    <workbookView xWindow="1880" yWindow="1460" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>NF BOT-IoT</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Weighted Hamming Lid</t>
+  </si>
+  <si>
+    <t>Dataset Size</t>
   </si>
 </sst>
 </file>
@@ -433,226 +436,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA4823-D7EE-DD49-A638-7630EB7F3007}">
-  <dimension ref="A3:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="C5">
-        <v>0.999</v>
-      </c>
-      <c r="D5">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="E5">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="H5">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="I5">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="J5">
-        <v>0.2288</v>
-      </c>
-      <c r="K5">
-        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="C6">
-        <v>0.999</v>
-      </c>
-      <c r="D6">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="E6">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="F6">
-        <v>0.99</v>
-      </c>
-      <c r="G6">
-        <v>0.97</v>
-      </c>
-      <c r="H6">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="K6">
-        <v>0.93600000000000005</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.95499999999999996</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="C7">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="D7">
-        <v>0.97299999999999998</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="E7">
-        <v>0.94399999999999995</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F7">
-        <v>0.99</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="G7">
-        <v>0.91800000000000004</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="H7">
-        <v>0.27900000000000003</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="I7">
-        <v>0.54200000000000004</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="J7">
-        <v>0.95099999999999996</v>
+        <v>0.2288</v>
       </c>
       <c r="K7">
-        <v>0.90700000000000003</v>
+        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.94399999999999995</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="C8">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>0.98099999999999998</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="E8">
-        <v>0.98499999999999999</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F8">
-        <v>0.98099999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="G8">
-        <v>0.97199999999999998</v>
+        <v>0.97</v>
+      </c>
+      <c r="H8">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K8">
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.998</v>
+      </c>
+      <c r="D9">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.99</v>
+      </c>
+      <c r="G9">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="J9">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C10">
+        <v>0.998</v>
+      </c>
+      <c r="D10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>0.97</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>0.999</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>0.98499999999999999</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>0.98299999999999998</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>0.998</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>0.61499999999999999</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>0.86</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>0.78400000000000003</v>
       </c>
     </row>

--- a/results_jcs.xlsx
+++ b/results_jcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/id_lid_iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1896929A-D869-8F4E-B31B-242311D0063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243371D1-FC50-4946-AEFE-B05DF56D29D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1460" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
+    <workbookView xWindow="3960" yWindow="500" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>NF BOT-IoT</t>
   </si>
@@ -78,14 +78,43 @@
   </si>
   <si>
     <t>Dataset Size</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Malicious</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>autoencoder benign loss average</t>
+  </si>
+  <si>
+    <t>ID of dataset tells us how well the Weighted Hamming LID algo will do detecting anomalies</t>
+  </si>
+  <si>
+    <t>VAE</t>
+  </si>
+  <si>
+    <t>For the autoencoder and VAE, the size of the dataset seems to be the best marker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,6 +125,18 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2FFF12"/>
+      <name val="Andale Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Andale Mono"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -119,8 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,244 +481,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA4823-D7EE-DD49-A638-7630EB7F3007}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11087</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3">
+        <v>401564</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3">
+        <v>29600</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3">
+        <v>10759</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2772</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3">
+        <v>100392</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>2690</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>586241</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3">
+        <v>161043</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3">
+        <v>45332</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3">
+        <v>11743</v>
+      </c>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="C7">
-        <v>0.999</v>
-      </c>
-      <c r="D7">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="E7">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="H7">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="I7">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="J7">
-        <v>0.2288</v>
-      </c>
-      <c r="K7">
-        <v>0.32400000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.96099999999999997</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="C8">
         <v>0.999</v>
       </c>
       <c r="D8">
-        <v>0.97299999999999998</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="E8">
-        <v>0.94299999999999995</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F8">
-        <v>0.99</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="G8">
-        <v>0.97</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="H8">
-        <v>0.20599999999999999</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="I8">
-        <v>0.51400000000000001</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="J8">
-        <v>0.95599999999999996</v>
+        <v>0.2288</v>
       </c>
       <c r="K8">
-        <v>0.93600000000000005</v>
+        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.95499999999999996</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="C9">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
         <v>0.97299999999999998</v>
       </c>
       <c r="E9">
-        <v>0.94399999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F9">
         <v>0.99</v>
       </c>
       <c r="G9">
-        <v>0.91800000000000004</v>
+        <v>0.97</v>
       </c>
       <c r="H9">
-        <v>0.27900000000000003</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="I9">
-        <v>0.54200000000000004</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="J9">
-        <v>0.95099999999999996</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="K9">
-        <v>0.90700000000000003</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.94399999999999995</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="C10">
         <v>0.998</v>
       </c>
       <c r="D10">
-        <v>0.98099999999999998</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="E10">
-        <v>0.98499999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F10">
-        <v>0.98099999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="G10">
-        <v>0.97199999999999998</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="H10">
-        <v>0.82899999999999996</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="I10">
-        <v>0.90200000000000002</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="J10">
-        <v>0.97399999999999998</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="K10">
-        <v>0.98099999999999998</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.998</v>
+      </c>
+      <c r="D11">
+        <v>0.622</v>
+      </c>
+      <c r="E11">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.86</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="5">
         <v>0.97</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="5">
         <v>0.999</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="5">
         <v>0.98499999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E13" s="5">
         <v>0.98299999999999998</v>
       </c>
-      <c r="F11">
+      <c r="F13" s="5">
         <v>0.998</v>
       </c>
-      <c r="G11">
+      <c r="G13" s="5">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>0.4</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>0.61499999999999999</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>0.86</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.99</v>
+      </c>
+      <c r="D15">
+        <v>1.77</v>
+      </c>
+      <c r="F15">
+        <v>5.5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>7.9046132420487796</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.84848062374409206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/results_jcs.xlsx
+++ b/results_jcs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/id_lid_iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243371D1-FC50-4946-AEFE-B05DF56D29D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E58CB1-7CD3-274A-B52C-DB6E9D4C0D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="500" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>NF BOT-IoT</t>
   </si>
@@ -98,7 +99,25 @@
     <t>VAE</t>
   </si>
   <si>
-    <t>For the autoencoder and VAE, the size of the dataset seems to be the best marker</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>For the autoencoder and VAE, the size of the dataset seems to be the best marker, but even this isn't a good indicator</t>
+  </si>
+  <si>
+    <t>Syn VAE</t>
+  </si>
+  <si>
+    <t>Weighted KNN</t>
+  </si>
+  <si>
+    <t>Weighted Hmming Lid</t>
+  </si>
+  <si>
+    <t>Recon VAE</t>
+  </si>
+  <si>
+    <t>Hamming LID</t>
   </si>
 </sst>
 </file>
@@ -182,6 +201,931 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3AD-9E4D-B7F6-D53EBAC1ADCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328644767"/>
+        <c:axId val="161515071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328644767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="161515071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="161515071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328644767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4523C14C-7CAD-C3C6-E892-1DD9C0285733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,15 +1425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA4823-D7EE-DD49-A638-7630EB7F3007}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -808,17 +1752,35 @@
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B12">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.999</v>
+      </c>
+      <c r="D12">
+        <v>0.71</v>
+      </c>
+      <c r="E12">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G12">
+        <v>0.89900000000000002</v>
+      </c>
       <c r="H12" s="5">
-        <v>0.73599999999999999</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="I12" s="5">
-        <v>0.94499999999999995</v>
+        <v>0.96</v>
       </c>
       <c r="J12" s="5">
-        <v>1</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="K12" s="5">
-        <v>1</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -858,35 +1820,593 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0.876</v>
+      </c>
+      <c r="C16">
+        <v>0.996</v>
+      </c>
+      <c r="D16">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H16">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="J16">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K16">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C17">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H17">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="I17">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="H18">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.47</v>
+      </c>
+      <c r="J18">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.997</v>
+      </c>
+      <c r="D19">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="H19">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K19">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C22">
+        <v>0.998</v>
+      </c>
+      <c r="D22">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="H22">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="I22">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J22">
+        <v>0.97</v>
+      </c>
+      <c r="K22">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="D23">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="H23">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="I23">
+        <v>0.877</v>
+      </c>
+      <c r="J23">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C24">
+        <v>0.998</v>
+      </c>
+      <c r="D24">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E24">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H24">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.73</v>
+      </c>
+      <c r="K24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C25">
+        <v>0.998</v>
+      </c>
+      <c r="D25">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E25">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H25">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K25">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>1.17</v>
+      </c>
+      <c r="D30">
+        <v>1.46</v>
+      </c>
+      <c r="F30">
+        <v>1.02</v>
+      </c>
+      <c r="H30">
+        <v>6.6</v>
+      </c>
+      <c r="J30">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B31">
         <v>0.99</v>
       </c>
-      <c r="D15">
+      <c r="D31">
         <v>1.77</v>
       </c>
-      <c r="F15">
+      <c r="F31">
         <v>5.5</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H31" s="2">
         <v>7.9046132420487796</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J31" s="2">
         <v>0.84848062374409206</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830B6EBA-8C93-D64E-B489-5B43F307827C}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="B12:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11087</v>
+      </c>
+      <c r="C2" s="3">
+        <v>240000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>401564</v>
+      </c>
+      <c r="E2" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2772</v>
+      </c>
+      <c r="C3" s="3">
+        <v>60000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100392</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>586241</v>
+      </c>
+      <c r="C4" s="3">
+        <v>161043</v>
+      </c>
+      <c r="D4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45332</v>
+      </c>
+      <c r="F4" s="3">
+        <v>11743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.2288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.99</v>
+      </c>
+      <c r="E9">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.99</v>
+      </c>
+      <c r="E10">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.622</v>
+      </c>
+      <c r="D11">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="E13">
+        <v>0.4</v>
+      </c>
+      <c r="F13">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1.17</v>
+      </c>
+      <c r="C14">
+        <v>1.46</v>
+      </c>
+      <c r="D14">
+        <v>1.02</v>
+      </c>
+      <c r="E14">
+        <v>6.6</v>
+      </c>
+      <c r="F14">
+        <v>3.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results_jcs.xlsx
+++ b/results_jcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/id_lid_iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E58CB1-7CD3-274A-B52C-DB6E9D4C0D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691C0F6-1EBB-BA4D-ACAA-A9276E8FF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="500" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
+    <workbookView xWindow="3940" yWindow="500" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>NF BOT-IoT</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Hamming LID</t>
+  </si>
+  <si>
+    <t>nf-cse-cic</t>
   </si>
 </sst>
 </file>
@@ -1425,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA4823-D7EE-DD49-A638-7630EB7F3007}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1444,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1486,7 +1489,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1511,7 +1514,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1536,7 +1539,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -1572,8 +1575,11 @@
       <c r="J6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1607,8 +1613,14 @@
       <c r="K7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1642,8 +1654,14 @@
       <c r="K8">
         <v>0.32400000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1696,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1713,7 +1731,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1747,8 +1765,14 @@
       <c r="K11" s="5">
         <v>0.98099999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1783,7 +1807,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1818,12 +1842,12 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1948,95 +1972,69 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="C22">
-        <v>0.998</v>
-      </c>
-      <c r="D22">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="E22">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="H22">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="I22">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="J22">
-        <v>0.97</v>
-      </c>
-      <c r="K22">
-        <v>0.96599999999999997</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>0.86699999999999999</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="C23">
-        <v>0.99250000000000005</v>
+        <v>0.998</v>
       </c>
       <c r="D23">
-        <v>0.75800000000000001</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="E23">
-        <v>0.56899999999999995</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="H23">
-        <v>0.83399999999999996</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="I23">
-        <v>0.877</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="J23">
-        <v>0.95599999999999996</v>
+        <v>0.97</v>
       </c>
       <c r="K23">
-        <v>0.93899999999999995</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>0.96199999999999997</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="C24">
-        <v>0.998</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="D24">
-        <v>0.81399999999999995</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E24">
-        <v>0.59899999999999998</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="H24">
-        <v>0.61099999999999999</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="I24">
-        <v>0.63300000000000001</v>
+        <v>0.877</v>
       </c>
       <c r="J24">
-        <v>0.73</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0.96199999999999997</v>
@@ -2045,77 +2043,123 @@
         <v>0.998</v>
       </c>
       <c r="D25">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E25">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H25">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.73</v>
+      </c>
+      <c r="K25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C26">
+        <v>0.998</v>
+      </c>
+      <c r="D26">
         <v>0.82899999999999996</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>0.48699999999999999</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>0.61099999999999999</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>0.95899999999999996</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-    </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B30">
-        <v>1.17</v>
-      </c>
-      <c r="D30">
-        <v>1.46</v>
-      </c>
-      <c r="F30">
-        <v>1.02</v>
-      </c>
-      <c r="H30">
-        <v>6.6</v>
-      </c>
-      <c r="J30">
-        <v>3.77</v>
-      </c>
+      <c r="B27">
+        <v>2.04</v>
+      </c>
+      <c r="D27">
+        <v>1.62</v>
+      </c>
+      <c r="F27">
+        <v>0.31</v>
+      </c>
+      <c r="H27">
+        <v>11.6</v>
+      </c>
+      <c r="J27">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>1.17</v>
+      </c>
+      <c r="D31">
+        <v>1.46</v>
+      </c>
+      <c r="F31">
+        <v>1.02</v>
+      </c>
+      <c r="H31">
+        <v>6.6</v>
+      </c>
+      <c r="J31">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>0.99</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>1.77</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>5.5</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H32" s="2">
         <v>7.9046132420487796</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J32" s="2">
         <v>0.84848062374409206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
     </row>

--- a/results_jcs.xlsx
+++ b/results_jcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/id_lid_iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691C0F6-1EBB-BA4D-ACAA-A9276E8FF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC82ED64-F7DB-2147-B887-4EFF2B2F2BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="500" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
+    <workbookView xWindow="37000" yWindow="3760" windowWidth="27240" windowHeight="16360" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
   <si>
     <t>NF BOT-IoT</t>
   </si>
@@ -90,9 +90,6 @@
     <t>features</t>
   </si>
   <si>
-    <t>autoencoder benign loss average</t>
-  </si>
-  <si>
     <t>ID of dataset tells us how well the Weighted Hamming LID algo will do detecting anomalies</t>
   </si>
   <si>
@@ -105,29 +102,32 @@
     <t>For the autoencoder and VAE, the size of the dataset seems to be the best marker, but even this isn't a good indicator</t>
   </si>
   <si>
-    <t>Syn VAE</t>
-  </si>
-  <si>
     <t>Weighted KNN</t>
   </si>
   <si>
     <t>Weighted Hmming Lid</t>
   </si>
   <si>
-    <t>Recon VAE</t>
-  </si>
-  <si>
     <t>Hamming LID</t>
   </si>
   <si>
     <t>nf-cse-cic</t>
+  </si>
+  <si>
+    <t>.169/177/.176/.113</t>
+  </si>
+  <si>
+    <t>isolation forest</t>
+  </si>
+  <si>
+    <t>VAE Dataset results (synthetic dataset)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,23 +151,23 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF2FFF12"/>
-      <name val="Andale Mono"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Andale Mono"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,13 +182,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA4823-D7EE-DD49-A638-7630EB7F3007}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1468,95 +1470,107 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>11087</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2">
         <v>240000</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="2">
         <v>401564</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3">
+      <c r="G2" s="3"/>
+      <c r="H2" s="2">
         <v>29600</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3">
+      <c r="I2" s="3"/>
+      <c r="J2" s="2">
         <v>10759</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2">
+        <v>200000</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2772</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
         <v>60000</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="2">
         <v>100392</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="2">
         <v>7400</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3">
+      <c r="I3" s="3"/>
+      <c r="J3" s="2">
         <v>2690</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3">
+        <v>50000</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>586241</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
         <v>161043</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="2">
         <v>500000</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3">
+      <c r="G4" s="3"/>
+      <c r="H4" s="2">
         <v>45332</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="2">
         <v>11743</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4">
+        <v>250000</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>38</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>42</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>41</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1569,15 +1583,18 @@
       <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1601,22 +1618,22 @@
       <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1642,22 +1659,22 @@
       <c r="G8">
         <v>0.59399999999999997</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>0.77900000000000003</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>0.89600000000000002</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>0.2288</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>0.32400000000000001</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>0.86099999999999999</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>0.89300000000000002</v>
       </c>
     </row>
@@ -1683,18 +1700,20 @@
       <c r="G9">
         <v>0.97</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>0.51400000000000001</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>0.95599999999999996</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <v>0.93600000000000005</v>
       </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1718,18 +1737,20 @@
       <c r="G10">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>0.27900000000000003</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>0.54200000000000004</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>0.95099999999999996</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <v>0.90700000000000003</v>
       </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1753,28 +1774,28 @@
       <c r="G11">
         <v>0.86</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>0.82899999999999996</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>0.90200000000000002</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>0.97399999999999998</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>0.98099999999999998</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>0.38</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0.88400000000000001</v>
@@ -1794,373 +1815,359 @@
       <c r="G12">
         <v>0.89900000000000002</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>0.78300000000000003</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>0.96</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>0.97399999999999998</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>0.99199999999999999</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.97</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.98499999999999999</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.98299999999999998</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.998</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>0.4</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>0.61499999999999999</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>0.86</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>0.78400000000000003</v>
       </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1.17</v>
+      </c>
+      <c r="D14">
+        <v>1.46</v>
+      </c>
+      <c r="F14">
+        <v>1.02</v>
+      </c>
+      <c r="H14">
+        <v>6.6</v>
+      </c>
+      <c r="J14">
+        <v>3.77</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E17" s="5">
+        <v>92.3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.434</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.877</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>0.876</v>
-      </c>
-      <c r="C16">
-        <v>0.996</v>
-      </c>
-      <c r="D16">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="E16">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="H16">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="J16">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="K16">
-        <v>0.97699999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B21" s="6">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.998</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="C17">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D17">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="E17">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="H17">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="I17">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="J17">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="K17">
-        <v>0.98199999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="C18">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="B22" s="6">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.998</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I22" s="5">
         <v>0.61099999999999999</v>
       </c>
-      <c r="E18">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="H18">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.47</v>
-      </c>
-      <c r="J18">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="K18">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="C19">
-        <v>0.997</v>
-      </c>
-      <c r="D19">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="E19">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="H19">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="J19">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="K19">
-        <v>0.97699999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="J22" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="C23">
-        <v>0.998</v>
-      </c>
-      <c r="D23">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="E23">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="H23">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="I23">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="J23">
-        <v>0.97</v>
-      </c>
-      <c r="K23">
-        <v>0.96599999999999997</v>
-      </c>
+      <c r="A23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="C24">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="D24">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="E24">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="H24">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="I24">
-        <v>0.877</v>
-      </c>
-      <c r="J24">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="K24">
-        <v>0.93899999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="C25">
-        <v>0.998</v>
-      </c>
-      <c r="D25">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="E25">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="H25">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="J25">
-        <v>0.73</v>
-      </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="C26">
-        <v>0.998</v>
-      </c>
-      <c r="D26">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="E26">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="H26">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="J26">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="K26">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>20</v>
-      </c>
-      <c r="B27">
-        <v>2.04</v>
-      </c>
-      <c r="D27">
-        <v>1.62</v>
-      </c>
-      <c r="F27">
-        <v>0.31</v>
-      </c>
-      <c r="H27">
-        <v>11.6</v>
-      </c>
-      <c r="J27">
-        <v>8.7100000000000009</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>1.17</v>
-      </c>
-      <c r="D31">
-        <v>1.46</v>
-      </c>
-      <c r="F31">
-        <v>1.02</v>
-      </c>
-      <c r="H31">
-        <v>6.6</v>
-      </c>
-      <c r="J31">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32">
-        <v>0.99</v>
-      </c>
-      <c r="D32">
-        <v>1.77</v>
-      </c>
-      <c r="F32">
-        <v>5.5</v>
-      </c>
-      <c r="H32" s="2">
-        <v>7.9046132420487796</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.84848062374409206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2205,19 +2212,19 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>11087</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>240000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>401564</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>29600</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>10759</v>
       </c>
     </row>
@@ -2225,19 +2232,19 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2772</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>60000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>100392</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>7400</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>2690</v>
       </c>
     </row>
@@ -2245,19 +2252,19 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>586241</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>161043</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>500000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>45332</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>11743</v>
       </c>
     </row>
@@ -2265,19 +2272,19 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>38</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>42</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>41</v>
       </c>
     </row>
@@ -2391,21 +2398,21 @@
       <c r="D11">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.82899999999999996</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.69899999999999995</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2413,13 +2420,13 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.97</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.98499999999999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.998</v>
       </c>
       <c r="E13">
@@ -2431,7 +2438,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1.17</v>

--- a/results_jcs.xlsx
+++ b/results_jcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/id_lid_iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9C1817-7EB5-7945-BAAB-F1F7FA0E67F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FC46B-945F-A04A-B833-3C6B7031C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="500" windowWidth="28420" windowHeight="18600" activeTab="2" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
+    <workbookView xWindow="72020" yWindow="-800" windowWidth="37900" windowHeight="19060" activeTab="2" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
   <si>
     <t>NF BOT-IoT</t>
   </si>
@@ -1857,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FC8E8F-C042-EE40-AE4E-5B53C5598AD9}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2470,12 +2470,12 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2483,101 +2483,117 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B32" s="15" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="D34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="F34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H34" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="J34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="A35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.188</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0.314</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2592,7 +2608,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2607,14 +2623,14 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -2622,49 +2638,19 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results_jcs.xlsx
+++ b/results_jcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgorbett/PycharmProjects/id_lid_iot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FC46B-945F-A04A-B833-3C6B7031C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68674F85-2974-B04C-A26F-9759301C156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72020" yWindow="-800" windowWidth="37900" windowHeight="19060" activeTab="2" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
+    <workbookView xWindow="72020" yWindow="-800" windowWidth="37900" windowHeight="18960" xr2:uid="{C10461A1-5624-1745-8CBC-8C72BCED9DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA4823-D7EE-DD49-A638-7630EB7F3007}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,8 +916,12 @@
       <c r="K9" s="5">
         <v>0.93600000000000005</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.76300000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -953,8 +957,12 @@
       <c r="K10" s="5">
         <v>0.90700000000000003</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.83399999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1072,8 +1080,12 @@
       <c r="K13" s="5">
         <v>0.78400000000000003</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.74399999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1473,7 +1485,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:O6"/>
+      <selection activeCell="K5" sqref="K5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1857,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FC8E8F-C042-EE40-AE4E-5B53C5598AD9}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1882,7 @@
     <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1881,7 +1893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
@@ -1895,7 +1907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>52</v>
       </c>
@@ -1907,7 +1919,7 @@
       </c>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +1933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>48</v>
       </c>
@@ -1933,7 +1945,7 @@
       </c>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>41</v>
       </c>
@@ -1945,533 +1957,340 @@
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.997</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.999</v>
-      </c>
-      <c r="D12" s="11">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="E12" s="11">
-        <v>92.3</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.998</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0.999</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0.995</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.999</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.434</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0.311</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.998</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0.97</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.877</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.998</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0.73</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.998</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2.04</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11">
-        <v>1.62</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11">
-        <v>0.31</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
-        <v>11.6</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>49</v>
-      </c>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="11"/>
+      <c r="A22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.997</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.999</v>
+      </c>
+      <c r="D22" s="11">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E22" s="11">
+        <v>92.3</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.998</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.999</v>
+      </c>
       <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>7</v>
+      <c r="A23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.434</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.311</v>
       </c>
       <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.998</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25" s="11">
-        <v>0.995</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="C25" s="11">
-        <v>0.999</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="D25" s="11">
-        <v>0.58799999999999997</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E25" s="11">
-        <v>0.44400000000000001</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="F25" s="11">
-        <v>0.435</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="G25" s="11">
-        <v>0.56399999999999995</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="H25" s="11">
-        <v>0.72099999999999997</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="I25" s="11">
-        <v>0.68500000000000005</v>
+        <v>0.877</v>
       </c>
       <c r="J25" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="K25" s="11">
-        <v>0.311</v>
-      </c>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.998</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.998</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2.04</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11">
+        <v>1.62</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11">
+        <v>11.6</v>
+      </c>
       <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="11">
+        <v>8.7100000000000009</v>
+      </c>
       <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2482,118 +2301,178 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-    </row>
-    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="D33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="F33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="J33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0.997</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.999</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.435</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="11">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0.999</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0.188</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2606,50 +2485,227 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0.998</v>
+      </c>
+      <c r="D46">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E46">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F46">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G46">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0.188</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
